--- a/CodeCountExport.xlsx
+++ b/CodeCountExport.xlsx
@@ -14,51 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>Event</t>
   </si>
   <si>
     <t>Count</t>
-  </si>
-  <si>
-    <t>adjank</t>
-  </si>
-  <si>
-    <t>adjcer</t>
-  </si>
-  <si>
-    <t>adjelb</t>
-  </si>
-  <si>
-    <t>adjft</t>
-  </si>
-  <si>
-    <t>adjhnd</t>
-  </si>
-  <si>
-    <t>adjknee</t>
-  </si>
-  <si>
-    <t>adjlum</t>
-  </si>
-  <si>
-    <t>adjpel</t>
-  </si>
-  <si>
-    <t>adjrib</t>
-  </si>
-  <si>
-    <t>adjshd</t>
-  </si>
-  <si>
-    <t>adjthor</t>
-  </si>
-  <si>
-    <t>adjtmj</t>
-  </si>
-  <si>
-    <t>adjwrt</t>
   </si>
   <si>
     <t>mobsank</t>
@@ -436,7 +397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +418,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>787</v>
+        <v>818</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -465,7 +426,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>5644</v>
+        <v>5591</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -473,7 +434,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>67</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -481,7 +442,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>319</v>
+        <v>490</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -489,7 +450,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>31</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -497,7 +458,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>108</v>
+        <v>415</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -505,7 +466,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>4718</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -513,7 +474,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>2050</v>
+        <v>5762</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -521,7 +482,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>983</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -529,7 +490,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>83</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -537,7 +498,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>6554</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -545,7 +506,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>27</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -553,239 +514,15 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="n">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>5591</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="n">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="n">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n">
-        <v>5762</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1443</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="n">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" t="n">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" t="n">
-        <v>3960</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" t="n">
+      <c r="B15" t="n">
         <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" t="n">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" t="n">
-        <v>5644</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" t="n">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" t="n">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" t="n">
-        <v>4718</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" t="n">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" t="n">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" t="n">
-        <v>6554</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" t="n">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
